--- a/outptrdfeut.xlsx
+++ b/outptrdfeut.xlsx
@@ -480,7 +480,7 @@
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2023-03-22 20:41:41</t>
+          <t>2023-03-22 02:39:31</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -528,7 +528,7 @@
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2023-03-22 13:24:03</t>
+          <t>2023-03-22 03:37:10</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
